--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1363,10 +1363,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1390,14 +1390,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1414,33 +1406,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1459,11 +1427,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1482,6 +1450,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1489,15 +1489,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1511,16 +1519,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1547,6 +1547,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1565,7 +1577,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,19 +1619,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1601,25 +1667,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,103 +1727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,6 +1801,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1823,24 +1843,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1858,21 +1860,22 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1881,136 +1884,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4334,52 +4334,76 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>443</v>
+      </c>
+      <c r="B8">
+        <v>9898</v>
       </c>
     </row>
   </sheetData>
